--- a/PortatilesModulos.xlsx
+++ b/PortatilesModulos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessenia\Documents\Visual Studio 2012\Projects\Portatiles\Portatiles_Compartido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESDREY_PC\Desktop\Proyecto Real Portatiles\Portatiles_Compartido\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -596,7 +596,22 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -609,21 +624,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -672,18 +672,18 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Clave" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Clasificación" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Clave" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Clasificación" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="3" name="Descripción"/>
     <tableColumn id="10" name="Programador"/>
-    <tableColumn id="4" name="Estado Programación" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Estado funcionalidad" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Observaciones" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Estado Programación" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Estado funcionalidad" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Observaciones" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="7" name="Puntaje" totalsRowFunction="sum"/>
-    <tableColumn id="8" name="% " dataDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="8" name="% " dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Avance Programado" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="Avance Programado" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1186,7 +1186,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,11 +1258,11 @@
       </c>
       <c r="I3" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J3" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="I4" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>3.6764705882352942E-2</v>
+        <v>4.9504950495049507E-2</v>
       </c>
       <c r="J4" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>3.6764705882352942E-2</v>
+        <v>4.9504950495049507E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I5" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>3.6764705882352942E-2</v>
+        <v>4.9504950495049507E-2</v>
       </c>
       <c r="J5" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1350,11 +1350,11 @@
       </c>
       <c r="I6" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J6" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I7" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J7" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="I8" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J8" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="I9" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J9" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="I10" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J10" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="I11" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J11" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1534,11 +1534,11 @@
       </c>
       <c r="I12" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J12" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="I13" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J13" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1594,11 +1594,11 @@
       </c>
       <c r="I14" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J14" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="I15" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J15" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="I16" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J16" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="I17" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11881188118811881</v>
       </c>
       <c r="J17" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11881188118811881</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1716,14 +1716,14 @@
       </c>
       <c r="I18" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J18" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.9603960396039604E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="I19" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.2058823529411766E-2</v>
+        <v>2.9702970297029702E-2</v>
       </c>
       <c r="J19" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="I20" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J20" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="I21" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J21" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1840,14 +1840,14 @@
       </c>
       <c r="I22" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J22" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.9603960396039604E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="I23" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11881188118811881</v>
       </c>
       <c r="J23" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="I24" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J24" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="I25" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J25" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1964,14 +1964,14 @@
       </c>
       <c r="I26" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J26" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.9603960396039604E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I27" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>0.14705882352941177</v>
+        <v>0.19801980198019803</v>
       </c>
       <c r="J27" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="I28" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J28" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="I29" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J29" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I30" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J30" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="I31" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J31" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2154,11 +2154,11 @@
       </c>
       <c r="I32" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J32" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2186,11 +2186,11 @@
       </c>
       <c r="I33" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11881188118811881</v>
       </c>
       <c r="J33" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11881188118811881</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="I34" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J34" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="I35" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J35" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I36" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J36" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="I37" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J37" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="I38" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>7.3529411764705885E-2</v>
+        <v>9.9009900990099015E-2</v>
       </c>
       <c r="J38" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I39" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>7.3529411764705885E-2</v>
+        <v>9.9009900990099015E-2</v>
       </c>
       <c r="J39" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="I40" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J40" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="I41" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J41" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="I42" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>5.8823529411764705E-2</v>
+        <v>7.9207920792079209E-2</v>
       </c>
       <c r="J42" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="I43" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J43" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="I44" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>2.9411764705882353E-2</v>
+        <v>3.9603960396039604E-2</v>
       </c>
       <c r="J44" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="I45" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J45" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="I46" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J46" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="I47" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J47" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="I48" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J48" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="I49" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J49" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="I50" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J50" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="I51" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J51" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="I52" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J52" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="I53" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J53" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="I54" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J54" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="I55" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J55" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="I56" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J56" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="I57" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J57" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="I58" s="6">
         <f>Tabla3[[#This Row],[Puntaje]]/Tabla3[[#Totals],[Puntaje]]</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="J58" s="6">
         <f>IF(Tabla3[[#This Row],[Estado Programación]]="Finalizado",Tabla3[[#This Row],[% ]],0)</f>
@@ -2971,7 +2971,7 @@
       <c r="G59" s="2"/>
       <c r="H59">
         <f>SUBTOTAL(109,Tabla3[Puntaje])</f>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="J59" s="7">
         <f>SUBTOTAL(109,Tabla3[Avance Programado])</f>
